--- a/app/dataframes/dex_list.xlsx
+++ b/app/dataframes/dex_list.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALEX</t>
+          <t>AmpleSwap</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GMX</t>
+          <t>DODO</t>
         </is>
       </c>
     </row>
@@ -492,14 +492,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Curve</t>
+          <t>Uniswap v2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DODO</t>
+          <t>Curve</t>
         </is>
       </c>
     </row>
@@ -513,35 +513,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Uniswap v2</t>
+          <t>PancakeSwap v3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PancakeSwap v3</t>
+          <t>Perpetual Protocol</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Perpetual Protocol</t>
+          <t>ApolloX</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ApolloX</t>
+          <t>Helix</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Helix</t>
+          <t>GMX</t>
         </is>
       </c>
     </row>
@@ -562,119 +562,119 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OpenOcean</t>
+          <t>Balancer v2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Balancer v2</t>
+          <t>SyncSwap</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SyncSwap</t>
+          <t>BaseSwap</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>OpenOcean</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BaseSwap</t>
+          <t>Sunswap v2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SynFutures</t>
+          <t>Orca</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Trader Joe v2.1</t>
+          <t>SynFutures</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sunswap v2</t>
+          <t>Cetus</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Slingshot Finance</t>
+          <t>ApolloX v2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PulseX</t>
+          <t>Trader Joe v2.1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ApolloX v2</t>
+          <t>PulseX</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Astroport</t>
+          <t>Retro</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WOOFi</t>
+          <t>Bancor Network</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Retro</t>
+          <t>WOOFi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KyberSwap Elastic</t>
+          <t>Slingshot Finance</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>KyberSwap Elastic</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PulseX v2</t>
+          <t>Ramses v2</t>
         </is>
       </c>
     </row>
@@ -688,14 +688,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ramses v2</t>
+          <t>PulseX v2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cetus</t>
+          <t>Klayswap v3</t>
         </is>
       </c>
     </row>
@@ -709,105 +709,105 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Klayswap v3</t>
+          <t>Tokenlon</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Équilibre</t>
+          <t>SushiSwap</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SushiSwap</t>
+          <t>QuickSwap</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bancor Network</t>
+          <t>Pancakeswap v3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pancakeswap v3</t>
+          <t>Astroport</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>QuickSwap</t>
+          <t>DeFiChain DEX</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mute</t>
+          <t>Pearl v1.5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Agni Finance</t>
+          <t>Velodrome Finance v2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sushiswap</t>
+          <t>Mute</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DeFiChain DEX</t>
+          <t>zkSwap Finance</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>zkSwap Finance</t>
+          <t>Agni Finance</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jetswap</t>
+          <t>Équilibre</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Phux</t>
+          <t>Raydium</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>Deri Protocol</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Velodrome Finance v2</t>
+          <t>Phux</t>
         </is>
       </c>
     </row>
@@ -821,14 +821,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Deri Protocol</t>
+          <t>KLAYswap</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Wombat Exchange</t>
+          <t>Jedi Swap</t>
         </is>
       </c>
     </row>
@@ -842,56 +842,56 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Balancer</t>
+          <t>Sushiswap v3</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Saber DEX</t>
+          <t>SpaceFi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Jedi Swap</t>
+          <t>Wombat Exchange</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pearl v1.5</t>
+          <t>Fraxswap v2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sushiswap v3</t>
+          <t>Katana</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SpaceFi</t>
+          <t>Osmosis</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>VVS Finance</t>
+          <t>Minswap</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KLAYswap</t>
+          <t>10K Swap</t>
         </is>
       </c>
     </row>
@@ -905,84 +905,84 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FusionX v3</t>
+          <t>Balancer</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Tokenlon</t>
+          <t>WEMIX.Fi</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Zyberswap v3</t>
+          <t>SushiSwap v3</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Minswap</t>
+          <t>FusionX v3</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SushiSwap v3</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>10K Swap</t>
+          <t>Maiar Exchange</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Fraxswap v2</t>
+          <t>VVS Finance</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Maiar Exchange</t>
+          <t>Saber DEX</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Osmosis</t>
+          <t>Zyberswap v3</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>DackieSwap</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>Lifinity</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Beethoven X</t>
+          <t>UniWswap</t>
         </is>
       </c>
     </row>
@@ -996,350 +996,350 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>UniWswap</t>
+          <t>Trader Joe</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Trader Joe</t>
+          <t>Liquidswap</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SpookySwap</t>
+          <t>ShibaSwap</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DackieSwap</t>
+          <t>Pangolin</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Stellarterm</t>
+          <t>THENA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MySwap</t>
+          <t>OKC Swap</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>StellaSwap v3</t>
+          <t>WingRiders DEX</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pangolin</t>
+          <t>MySwap</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>WEMIX.Fi</t>
+          <t>Kujira Fin</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ShibaSwap</t>
+          <t>Nomiswap</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>OKC Swap</t>
+          <t>SpookySwap</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nomiswap</t>
+          <t>Beethoven X</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lifinity</t>
+          <t>Dfyn Network</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ApeSwap</t>
+          <t>Horizon Dex</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Liquidswap</t>
+          <t>StellaSwap v3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kujira Fin</t>
+          <t>Stellarterm</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dfyn Network</t>
+          <t>Sushiswap</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Clipper</t>
+          <t>ApeSwap</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RCP Swap</t>
+          <t>Clipper</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Polkaswap</t>
+          <t>SaitaSwap</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SaitaSwap</t>
+          <t>Velocore</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Horizon Dex</t>
+          <t>Ref Finance</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Velocore</t>
+          <t>iZiSwap</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>THENA</t>
+          <t>Hermes Protocol</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DOOAR</t>
+          <t>Tinyman</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SaucerSwap</t>
+          <t>Swappi</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>iZiSwap</t>
+          <t>Fstswap</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>WingRiders DEX</t>
+          <t>Sovryn</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kava Swap</t>
+          <t>DOOAR</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MDEX</t>
+          <t>SundaeSwap</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ArbSwap</t>
+          <t>VyFinance</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Hermes Protocol</t>
+          <t>Polkaswap</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Tinyman</t>
+          <t>ArthSwap</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>VyFinance</t>
+          <t>Solarbeam</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Swappi</t>
+          <t>MDEX</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MM Finance</t>
+          <t>Trader Joe v2</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Trader Joe v2</t>
+          <t>SaucerSwap</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sovryn</t>
+          <t>Orion BSC</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Orion BSC</t>
+          <t>Chronos Exchange</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Honeyswap</t>
+          <t>Netswap</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SundaeSwap</t>
+          <t>ArbSwap</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BabySwap</t>
+          <t>Capital DEX</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ref Finance</t>
+          <t>Ezkalibur</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ArthSwap</t>
+          <t>Swych</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ezkalibur</t>
+          <t>SwapBased</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Swych</t>
+          <t>WigoSwap</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Solarbeam</t>
+          <t>Loopring Exchange</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Loopring Exchange</t>
+          <t>MM Finance</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Nash</t>
+          <t>Velodrome</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>WigoSwap</t>
+          <t>Nash</t>
         </is>
       </c>
     </row>
@@ -1353,301 +1353,301 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SwapBased</t>
+          <t>BabySwap</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Capital DEX</t>
+          <t>KyberSwap Classic</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Velodrome</t>
+          <t>1inch Liquidity Protocol</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>KyberSwap Classic</t>
+          <t>Kava Swap</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DeFi Swap</t>
+          <t>DeFi Kingdoms</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Chronos Exchange</t>
+          <t>Honeyswap</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DeFi Kingdoms</t>
+          <t>Voltage Finance</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Equalizer</t>
+          <t>mimo.exchange</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Velocimeter</t>
+          <t>LFGSwap</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FlatQube Exchange</t>
+          <t>DFX Finance</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Dark Knight</t>
+          <t>ArcherSwap</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MagicSwap</t>
+          <t>Dark Knight</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DoveSwap v3</t>
+          <t>MagicSwap</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Netswap</t>
+          <t>Baby Doge Swap</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DFX Finance</t>
+          <t>Velocimeter</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DeDust</t>
+          <t>Trisolaris</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Tombswap</t>
+          <t>RCP Swap</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fstswap</t>
+          <t>SoulSwap</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SoulSwap</t>
+          <t>Shadowswap</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Marswap</t>
+          <t>DoveSwap v3</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Baby Doge Swap</t>
+          <t>Ramses</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Rai Finance</t>
+          <t>Equalizer</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ClaimSwap</t>
+          <t>Elk Finance</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>mimo.exchange</t>
+          <t>Rai Finance</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Ubeswap</t>
+          <t>Wagmi</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Elk Finance</t>
+          <t>IceCreamSwap</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>LFGSwap</t>
+          <t>BakerySwap</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Trisolaris</t>
+          <t>Swop.fi</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ArcherSwap</t>
+          <t>CherrySwap</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IceCreamSwap</t>
+          <t>ClaimSwap</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Wagmi</t>
+          <t>FlatQube Exchange</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Verse</t>
+          <t>Forteswap</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BakerySwap</t>
+          <t>WX Network</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ramses</t>
+          <t>StellaSwap</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SharkSwap</t>
+          <t>DeFi Swap</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Shadowswap</t>
+          <t>Swapr</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CherrySwap</t>
+          <t>Tombswap</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>KnightSwap</t>
+          <t>DeDust</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Swop.fi</t>
+          <t>Marswap</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>OolongSwap</t>
+          <t>ViteX</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Swapr</t>
+          <t>ThetaSwap</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Wagyuswap</t>
+          <t>CroSwap</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>VaporDex</t>
+          <t>Arbswap</t>
         </is>
       </c>
     </row>
@@ -1661,546 +1661,546 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Arbswap</t>
+          <t>YokaiSwap</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Forteswap</t>
+          <t>Orion ETH</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>WX Network</t>
+          <t>OolongSwap</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CroSwap</t>
+          <t>QuipuSwap</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Orion ETH</t>
+          <t>Verse</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1inch Liquidity Protocol</t>
+          <t>Ubeswap</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>StellaSwap</t>
+          <t>SpiritSwap</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ViteX</t>
+          <t>Lizard</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SpiritSwap</t>
+          <t>OpenSwap</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MojitoSwap</t>
+          <t>Bored Candy City</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>KuSwap</t>
+          <t>IDEX</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SolidLizard</t>
+          <t>YuzuSwap</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Voltage Finance</t>
+          <t>DogSwap</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>DogSwap</t>
+          <t>Wagyuswap</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lizard</t>
+          <t>SolidLizard</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>OpenSwap</t>
+          <t>Dinosaur Eggs</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>YokaiSwap</t>
+          <t>Excalibur</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Bored Candy City</t>
+          <t>Pandora</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Synthswap</t>
+          <t>Velocimeter v2</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Dinosaur Eggs</t>
+          <t>Huckleberry</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Excalibur</t>
+          <t>Tethys</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Pandora</t>
+          <t>Alita Finance</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Velocimeter v2</t>
+          <t>Gravity Finance</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Alita Finance</t>
+          <t>BinarySwap</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Tethys</t>
+          <t>SuiSwap</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Gravity Finance</t>
+          <t>WaultSwap</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Fraxswap</t>
+          <t>Newdex</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SuiSwap</t>
+          <t>Baryon Network</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>KAIDEX v3</t>
+          <t>Jetswap</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>IDEX</t>
+          <t>VaporDex</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>QuipuSwap</t>
+          <t>Synthswap</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Birake Network</t>
+          <t>Fraxswap</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Baryon Network</t>
+          <t>KAIDEX v3</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>JulSwap</t>
+          <t>KnightSwap</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>OpenLeverage</t>
+          <t>Tranquil Finance</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>CronaSwap</t>
+          <t>Birake Network</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>WaultSwap</t>
+          <t>RocketSwap</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Tranquil Finance</t>
+          <t>KSwap</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>KibbleSwap</t>
+          <t>AUX Exchange</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>AUX Exchange</t>
+          <t>WingSwap</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>WingSwap</t>
+          <t>Karura Swap</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Karura Swap</t>
+          <t>SharkSwap</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RocketSwap</t>
+          <t>MojitoSwap</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>YuzuSwap</t>
+          <t>BeamSwap</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Pegasys</t>
+          <t>Morpheus Swap</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Morpheus Swap</t>
+          <t>MakiSwap</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BeamSwap</t>
+          <t>Zenlink</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CRODEX</t>
+          <t>SkullSwap</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AstroSwap</t>
+          <t>Planet Finance</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Zenlink</t>
+          <t>WardenSwap</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SkullSwap</t>
+          <t>CRODEX</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MistSwap</t>
+          <t>Mars Ecosystem</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BinarySwap</t>
+          <t>Wannaswap</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>WardenSwap</t>
+          <t>LeetSwap</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PlasmaSwap</t>
+          <t>KibbleSwap</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Huckleberry</t>
+          <t>Jswap Finance</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>KSwap</t>
+          <t>CronaSwap</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Solidly</t>
+          <t>AstroSwap</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Newdex</t>
+          <t>BXH</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Planet Finance</t>
+          <t>Firebird Finance</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Glide Finance</t>
+          <t>MuesliSwap</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BXH</t>
+          <t>RadioShack</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Firebird Finance</t>
+          <t>Spartan Protocol</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Jswap Finance</t>
+          <t>Arbidex</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MakiSwap</t>
+          <t>WoofSwap</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BenSwap</t>
+          <t>LuaSwap</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>WoofSwap</t>
+          <t>AnimeSwap</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Lydia Finance</t>
+          <t>Pegasys</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Swapsicle</t>
+          <t>Bunicorn</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Arbidex</t>
+          <t>Glide Finance</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Spartan Protocol</t>
+          <t>Lydia Finance</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Bunicorn</t>
+          <t>BenSwap</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>RadioShack</t>
+          <t>DAO Swap</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>DAO Swap</t>
+          <t>Minter</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Wannaswap</t>
+          <t>Yoshi Exchange</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Minter</t>
+          <t>KuSwap</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Zappy</t>
+          <t>Solidly</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Yoshi Exchange</t>
+          <t>W3Swap</t>
         </is>
       </c>
     </row>
@@ -2214,140 +2214,140 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Kyotoswap</t>
+          <t>ProtoFi</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>W3Swap</t>
+          <t>ViperSwap</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AnimeSwap</t>
+          <t>PlasmaSwap</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>3xcalibur</t>
+          <t>Mento</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>OreoSwap</t>
+          <t>Zyberswap</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Zyberswap</t>
+          <t>FlairDex</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ViperSwap</t>
+          <t>OreoSwap</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Mars Ecosystem</t>
+          <t>MilkySwap</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ProtoFi</t>
+          <t>Kyotoswap</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Mento</t>
+          <t>XCAD DEX</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Kaddex</t>
+          <t>DuckyDefi</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>FlairDex</t>
+          <t>AutoShark Finance</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>MilkySwap</t>
+          <t>GemSwap</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>DuckyDefi</t>
+          <t>YodeSwap</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>AutoShark Finance</t>
+          <t>Swapsicle</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>GemSwap</t>
+          <t>Arbiswap</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Arbiswap</t>
+          <t>MistSwap</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CrescentSwap</t>
+          <t>BlueMove</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BlueMove</t>
+          <t>CrescentSwap</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>LuaSwap</t>
+          <t>3xcalibur</t>
         </is>
       </c>
     </row>
@@ -2361,91 +2361,91 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Noah</t>
+          <t>Hakuswap</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Hakuswap</t>
+          <t>DefySwap</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>NeutroSwap</t>
+          <t>Alien.Fi</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>MuesliSwap</t>
+          <t>Greenhouse</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>DefySwap</t>
+          <t>Kwikswap</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>YodeSwap</t>
+          <t>Balanced</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Alien.Fi</t>
+          <t>Core Dao Swap</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>NeutroSwap</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>Zappy</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>XCAD DEX</t>
+          <t>YetiSwap</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Symmetric</t>
+          <t>Energiswap</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Balanced</t>
+          <t>Sharkyswap</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Sterling Finance</t>
+          <t>DogeSwap</t>
         </is>
       </c>
     </row>
@@ -2459,42 +2459,42 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>DogeSwap</t>
+          <t>Diffusion Finance</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>YetiSwap</t>
+          <t>Sterling Finance</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Woof Finance</t>
+          <t>Symmetric</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Core Dao Swap</t>
+          <t>FlameSwap</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Sharkyswap</t>
+          <t>IslandSwap</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Energiswap</t>
+          <t>Woof Finance</t>
         </is>
       </c>
     </row>
@@ -2508,203 +2508,203 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Diffusion Finance</t>
+          <t>EvmoSwap</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>IslandSwap</t>
+          <t>KAIDEX</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>onAVAX</t>
+          <t>Leonicorn Swap</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Archly Finance</t>
+          <t>Wanswap</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>KAIDEX</t>
+          <t>Cronus Finance</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>EvmoSwap</t>
+          <t>onAVAX</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Cronus Finance</t>
+          <t>Kwenta</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Wanswap</t>
+          <t>Unicly</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>FlameSwap</t>
+          <t>Convergence</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>LeetSwap</t>
+          <t>CoinSwap Space</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Kwenta</t>
+          <t>OpenLeverage</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Kwikswap</t>
+          <t>ZilSwap</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Unicly</t>
+          <t>Hebeswap</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Convergence</t>
+          <t>Kaddex</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>CoinSwap Space</t>
+          <t>Decaswap</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ZilSwap</t>
+          <t>NSKSwap</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Hebeswap</t>
+          <t>Apeswap</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Decaswap</t>
+          <t>ALEX</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>NSKSwap</t>
+          <t>Daylight Protocol</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Leonicorn Swap</t>
+          <t>Oasis Swap</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Apeswap</t>
+          <t>Archly Finance</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Daylight Protocol</t>
+          <t>NESTFi</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Oasis Swap</t>
+          <t>Merlin DEX</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ThetaSwap</t>
+          <t>ko.one</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>NESTFi</t>
+          <t>Purple Bridge</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Merlin DEX</t>
+          <t>E3</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ko.one</t>
+          <t>Noah</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Purple Bridge</t>
+          <t>JulSwap</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>AmpleSwap</t>
+          <t>Jupiter</t>
         </is>
       </c>
     </row>
